--- a/crime.xlsx
+++ b/crime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dafeng Xu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UW Offline\543 Visual Analytics\543_proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4CA04E-3F77-42AD-B08F-FE41754D8FEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B353DA9-F42B-4425-B7AB-1569DA445633}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B3A4F4E-A3A5-42AF-9A5D-D6E36A62A92E}"/>
+    <workbookView xWindow="15660" yWindow="4050" windowWidth="9960" windowHeight="14550" xr2:uid="{0B3A4F4E-A3A5-42AF-9A5D-D6E36A62A92E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
